--- a/1234.xlsx
+++ b/1234.xlsx
@@ -105,10 +105,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -118,13 +118,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C1" s="0" t="n">
         <v>3</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/1234.xlsx
+++ b/1234.xlsx
@@ -24,6 +24,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -108,7 +109,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -118,7 +119,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>2</v>

--- a/1234.xlsx
+++ b/1234.xlsx
@@ -12,6 +12,17 @@
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Hallo</t>
+  </si>
+  <si>
+    <t>Dies ist</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -106,10 +117,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -131,6 +142,18 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <f aca="false">SUM(A1:D1)</f>
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
